--- a/data/trans_dic/KIDM_A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,49</t>
+          <t>0; 2,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,03</t>
+          <t>4,51; 16,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,98</t>
+          <t>0,98; 9,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,66</t>
+          <t>0; 3,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,26</t>
+          <t>0,0; 8,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,16</t>
+          <t>0,0; 6,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,17</t>
+          <t>0,0; 6,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,4</t>
+          <t>0,0; 8,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,59</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,41</t>
+          <t>2,69; 9,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,39</t>
+          <t>0,91; 5,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,73</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>1,04; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 16,06</t>
+          <t>1,03; 4,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,53</t>
+          <t>0,27; 2,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>0,49; 3,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>1,02; 4,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>2,09; 6,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>0,67; 3,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,24; 3,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,74</t>
+          <t>1,36; 3,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,04</t>
+          <t>1,9; 4,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,44</t>
+          <t>0,64; 2,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0,67; 2,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,32 +936,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -971,27 +971,27 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,49</t>
+          <t>1,08; 6,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,03</t>
+          <t>2,46; 8,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,98</t>
+          <t>0,87; 5,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,66</t>
+          <t>0,0; 6,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,26</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,16</t>
+          <t>0,56; 5,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,17</t>
+          <t>0,38; 3,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,4</t>
+          <t>0,82; 8,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,59</t>
+          <t>0,97; 4,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,41</t>
+          <t>1,95; 5,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,39</t>
+          <t>0,96; 3,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,73</t>
+          <t>0,8; 5,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,47</t>
+          <t>0,36; 3,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,77</t>
+          <t>1,14; 5,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,47</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,12</t>
+          <t>0,09; 3,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,9</t>
+          <t>1,12; 5,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,21</t>
+          <t>2,24; 8,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,95</t>
+          <t>0,4; 3,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,52</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,25</t>
+          <t>0,97; 3,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,84</t>
+          <t>2,0; 5,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,62</t>
+          <t>0,52; 2,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,47</t>
+          <t>0,15; 2,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 3,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 5,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 3,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 3,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 3,91</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 5,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 2,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 3,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 4,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 2,82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/KIDM_A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,18</t>
+          <t>1,06; 6,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 8,15</t>
+          <t>2,5; 8,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,35</t>
+          <t>0,84; 5,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,35</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,82</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,07</t>
+          <t>0,56; 5,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,87</t>
+          <t>0,4; 3,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,35</t>
+          <t>0,83; 8,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,32</t>
+          <t>0,91; 4,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,59</t>
+          <t>1,79; 5,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,5</t>
+          <t>0,97; 3,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,07</t>
+          <t>0,8; 5,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,18</t>
+          <t>0,37; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,07</t>
+          <t>1,12; 5,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,68</t>
+          <t>0,1; 4,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,36</t>
+          <t>1,08; 4,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,12</t>
+          <t>2,16; 7,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,91</t>
+          <t>0,5; 4,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,42</t>
+          <t>0,95; 3,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,46</t>
+          <t>2,04; 5,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,97</t>
+          <t>0,55; 2,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,24</t>
+          <t>0,23; 2,31</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,54</t>
+          <t>0,85; 3,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,72</t>
+          <t>2,14; 5,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,4</t>
+          <t>0,77; 3,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,27</t>
+          <t>0,39; 3,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,91</t>
+          <t>1,12; 3,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,34</t>
+          <t>1,72; 5,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,9</t>
+          <t>0,72; 2,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,42</t>
+          <t>0,38; 3,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,25</t>
+          <t>1,26; 3,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,88</t>
+          <t>2,35; 4,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,82</t>
+          <t>1,0; 2,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,46</t>
+          <t>0,64; 2,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>2,89%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>4,7%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>2,32%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 6,4</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,83</t>
+          <t>0,56; 5,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,48</t>
+          <t>0,38; 3,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>0,91; 8,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,23</t>
+          <t>1,12; 6,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,14</t>
+          <t>2,32; 8,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,6</t>
+          <t>0,84; 5,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,14</t>
+          <t>0,0; 5,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,08</t>
+          <t>1,01; 4,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,52</t>
+          <t>2,06; 5,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,55</t>
+          <t>0,91; 3,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,21</t>
+          <t>0,87; 5,0</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,18%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>2,69%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>1,07%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,5</t>
+          <t>1,09; 4,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,41</t>
+          <t>2,14; 7,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0,36; 3,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,03</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,95</t>
+          <t>0,36; 3,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,75</t>
+          <t>1,16; 5,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,01</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,09; 3,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,36</t>
+          <t>0,97; 3,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,4</t>
+          <t>1,92; 5,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,86</t>
+          <t>0,56; 3,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,31</t>
+          <t>0,18; 2,41</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>3,65%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>1,7%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,52</t>
+          <t>0,96; 3,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,59</t>
+          <t>1,74; 5,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,57</t>
+          <t>0,73; 2,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,28</t>
+          <t>0,37; 3,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,76</t>
+          <t>0,82; 3,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,21</t>
+          <t>2,26; 5,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,87</t>
+          <t>0,79; 3,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,39</t>
+          <t>0,34; 3,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,1</t>
+          <t>1,28; 3,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,64</t>
+          <t>2,42; 4,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,67</t>
+          <t>0,96; 2,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,5</t>
+          <t>0,6; 2,4</t>
         </is>
       </c>
     </row>
